--- a/Project1/testdata/demo.xlsx
+++ b/Project1/testdata/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16140" windowHeight="2625"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16680" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Hulk</t>
+  </si>
+  <si>
+    <t>krishna</t>
+  </si>
+  <si>
+    <t>radha</t>
+  </si>
+  <si>
+    <t>Jack</t>
   </si>
 </sst>
 </file>
@@ -366,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -412,6 +421,30 @@
       </c>
       <c r="B5">
         <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
